--- a/lin/help/54_COVID_19_svod.xlsx
+++ b/lin/help/54_COVID_19_svod.xlsx
@@ -218,9 +218,6 @@
     <t>СПб ГБУЗ "Городская поликлиника №30"</t>
   </si>
   <si>
-    <t>СПб ГБУЗ "Городская поликлиника №32"</t>
-  </si>
-  <si>
     <t>СПб ГБУЗ "Городская поликлиника №34"</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>СПб ГБУЗ "Детская городская поликлиника №49" Пушкинского района</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника № 32"</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.45" customHeight="1">
@@ -5624,7 +5624,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5652,7 +5652,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7020,7 +7020,7 @@
         <v>44</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C60" s="21" t="e">
         <f>VLOOKUP($B60,svod!$C$2:$H$300,2,0)</f>
@@ -7044,7 +7044,7 @@
         <v>45</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="21" t="e">
         <f>VLOOKUP($B61,svod!$C$2:$H$300,2,0)</f>
@@ -7068,7 +7068,7 @@
         <v>46</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="21" t="e">
         <f>VLOOKUP($B62,svod!$C$2:$H$300,2,0)</f>
@@ -7090,7 +7090,7 @@
     <row r="63" spans="1:6" ht="18">
       <c r="A63" s="19"/>
       <c r="B63" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="19" t="e">
         <f>SUM(C64)</f>
@@ -7114,7 +7114,7 @@
         <v>47</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="21" t="e">
         <f>VLOOKUP($B64,svod!$C$2:$H$300,2,0)</f>
@@ -7136,7 +7136,7 @@
     <row r="65" spans="1:6" ht="18">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="19" t="e">
         <f>SUM(C66)</f>
@@ -7160,7 +7160,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="21" t="e">
         <f>VLOOKUP($B66,svod!$C$2:$H$300,2,0)</f>
@@ -7182,7 +7182,7 @@
     <row r="67" spans="1:6" ht="18">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="19" t="e">
         <f>SUM(C68:C70)</f>
@@ -7206,7 +7206,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="21" t="e">
         <f>VLOOKUP($B68,svod!$C$2:$H$300,2,0)</f>
@@ -7230,7 +7230,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="21" t="e">
         <f>VLOOKUP($B69,svod!$C$2:$H$300,2,0)</f>
@@ -7254,7 +7254,7 @@
         <v>51</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="21" t="e">
         <f>VLOOKUP($B70,svod!$C$2:$H$300,2,0)</f>
@@ -7276,7 +7276,7 @@
     <row r="71" spans="1:6" ht="18">
       <c r="A71" s="19"/>
       <c r="B71" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="19" t="e">
         <f>SUM(C72:C76)</f>
@@ -7300,7 +7300,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="21" t="e">
         <f>VLOOKUP($B72,svod!$C$2:$H$300,2,0)</f>
@@ -7324,7 +7324,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="21" t="e">
         <f>VLOOKUP($B73,svod!$C$2:$H$300,2,0)</f>
@@ -7348,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="21" t="e">
         <f>VLOOKUP($B74,svod!$C$2:$H$300,2,0)</f>
@@ -7372,7 +7372,7 @@
         <v>55</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="21" t="e">
         <f>VLOOKUP($B75,svod!$C$2:$H$300,2,0)</f>
@@ -7396,7 +7396,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="21" t="e">
         <f>VLOOKUP($B76,svod!$C$2:$H$300,2,0)</f>
@@ -7418,7 +7418,7 @@
     <row r="77" spans="1:6" ht="18">
       <c r="A77" s="19"/>
       <c r="B77" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="19" t="e">
         <f>SUM(C78:C81)</f>
@@ -7442,7 +7442,7 @@
         <v>57</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="21" t="e">
         <f>VLOOKUP($B78,svod!$C$2:$H$300,2,0)</f>
@@ -7466,7 +7466,7 @@
         <v>58</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="21" t="e">
         <f>VLOOKUP($B79,svod!$C$2:$H$300,2,0)</f>
@@ -7490,7 +7490,7 @@
         <v>59</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="21" t="e">
         <f>VLOOKUP($B80,svod!$C$2:$H$300,2,0)</f>
@@ -7514,7 +7514,7 @@
         <v>60</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="21" t="e">
         <f>VLOOKUP($B81,svod!$C$2:$H$300,2,0)</f>
@@ -7536,7 +7536,7 @@
     <row r="82" spans="1:6" ht="36">
       <c r="A82" s="19"/>
       <c r="B82" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="19" t="e">
         <f>SUM(C83:C100)</f>
@@ -7560,7 +7560,7 @@
         <v>61</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="21" t="e">
         <f>VLOOKUP($B83,svod!$C$2:$H$300,2,0)</f>
@@ -7584,7 +7584,7 @@
         <v>62</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="21" t="e">
         <f>VLOOKUP($B84,svod!$C$2:$H$300,2,0)</f>
@@ -7608,7 +7608,7 @@
         <v>63</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="21" t="e">
         <f>VLOOKUP($B85,svod!$C$2:$H$300,2,0)</f>
@@ -7632,7 +7632,7 @@
         <v>64</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="21" t="e">
         <f>VLOOKUP($B86,svod!$C$2:$H$300,2,0)</f>
@@ -7656,7 +7656,7 @@
         <v>65</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="21" t="e">
         <f>VLOOKUP($B87,svod!$C$2:$H$300,2,0)</f>
@@ -7680,7 +7680,7 @@
         <v>66</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="21" t="e">
         <f>VLOOKUP($B88,svod!$C$2:$H$300,2,0)</f>
@@ -7704,7 +7704,7 @@
         <v>67</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="21" t="e">
         <f>VLOOKUP($B89,svod!$C$2:$H$300,2,0)</f>
@@ -7728,7 +7728,7 @@
         <v>68</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="21" t="e">
         <f>VLOOKUP($B90,svod!$C$2:$H$300,2,0)</f>
@@ -7752,7 +7752,7 @@
         <v>69</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="21" t="e">
         <f>VLOOKUP($B91,svod!$C$2:$H$300,2,0)</f>
@@ -7776,7 +7776,7 @@
         <v>70</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="21" t="e">
         <f>VLOOKUP($B92,svod!$C$2:$H$300,2,0)</f>
@@ -7800,7 +7800,7 @@
         <v>71</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="21" t="e">
         <f>VLOOKUP($B93,svod!$C$2:$H$300,2,0)</f>
@@ -7824,7 +7824,7 @@
         <v>72</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="21" t="e">
         <f>VLOOKUP($B94,svod!$C$2:$H$300,2,0)</f>
@@ -7848,7 +7848,7 @@
         <v>73</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" s="21" t="e">
         <f>VLOOKUP($B95,svod!$C$2:$H$300,2,0)</f>
@@ -7872,7 +7872,7 @@
         <v>74</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="21" t="e">
         <f>VLOOKUP($B96,svod!$C$2:$H$300,2,0)</f>
@@ -7896,7 +7896,7 @@
         <v>75</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="21" t="e">
         <f>VLOOKUP($B97,svod!$C$2:$H$300,2,0)</f>
@@ -7920,7 +7920,7 @@
         <v>76</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="21" t="e">
         <f>VLOOKUP($B98,svod!$C$2:$H$300,2,0)</f>
@@ -7944,7 +7944,7 @@
         <v>77</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="21" t="e">
         <f>VLOOKUP($B99,svod!$C$2:$H$300,2,0)</f>
@@ -7968,7 +7968,7 @@
         <v>78</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" s="21" t="e">
         <f>VLOOKUP($B100,svod!$C$2:$H$300,2,0)</f>
@@ -7997,7 +7997,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8017,7 +8017,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="25" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="D45" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C45, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C46, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="B47" s="32"/>
       <c r="C47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C47, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8649,10 +8649,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>68</v>
       </c>
       <c r="D48" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C48, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8664,10 +8664,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="D49" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C49, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8679,10 +8679,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C50, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C51, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="B52" s="32"/>
       <c r="C52" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C52, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8720,10 +8720,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="D53" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C53, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C54, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B55" s="31"/>
       <c r="C55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C55, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C56, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="B57" s="32"/>
       <c r="C57" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C57, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8787,10 +8787,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="D58" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C58, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C59, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C60, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C61, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8841,10 +8841,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="D62" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C62, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B63" s="31"/>
       <c r="C63" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D63" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C63, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C64, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B65" s="31"/>
       <c r="C65" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D65" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C65, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B66" s="31"/>
       <c r="C66" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C66, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="B67" s="31"/>
       <c r="C67" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C67, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="B68" s="31"/>
       <c r="C68" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C68, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="B69" s="31"/>
       <c r="C69" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C69, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="B70" s="31"/>
       <c r="C70" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C70, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C71, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C72, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="B73" s="31"/>
       <c r="C73" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C73, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D74" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C74, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B75" s="31"/>
       <c r="C75" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C75, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B76" s="31"/>
       <c r="C76" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D76" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C76, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="B77" s="31"/>
       <c r="C77" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C77, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B78" s="31"/>
       <c r="C78" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C78, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D79" s="26" t="str">
         <f>IF(ISNA(VLOOKUP($C79, svod!$C$2:$C$200,1,0)), "должник", "сдал")</f>
@@ -9075,6 +9075,12 @@
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <mergeCells count="16">
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="B58:B61"/>
@@ -9085,12 +9091,6 @@
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D150">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Должник">
